--- a/storage/app/public/excel/DB23_kubus_NL.xlsx
+++ b/storage/app/public/excel/DB23_kubus_NL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://avans-my.sharepoint.com/personal/rt_willemsen_avans_nl/Documents/_ROB/hboi_DB/domeinbeschrijving/DB23/review/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse\Documents\B302\1905-nieuwe-domeinbeschrijving-hbo-i\hbo-i-be\storage\app\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="869" documentId="11_E2B306B3CBD271CAFF39ED7F42BEE9EB7202EEE4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5350D4A-EB04-4E95-A726-BE4911AF8025}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95A0669-5095-4773-AF43-42D4A742320D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gebruikersinteractie" sheetId="1" r:id="rId1"/>
@@ -129,43 +129,19 @@
     <t>Toekomstgericht organiseren </t>
   </si>
   <si>
-    <t>Organisatorische context </t>
-  </si>
-  <si>
-    <t>Ethiek </t>
-  </si>
-  <si>
     <t>Procesmanagement</t>
   </si>
   <si>
     <t>Onderzoekend vermogen </t>
   </si>
   <si>
-    <t>Methodische Probleemaanpak </t>
-  </si>
-  <si>
-    <t>Onderzoek </t>
-  </si>
-  <si>
     <t>Oplossing</t>
   </si>
   <si>
     <t>Persoonlijk leiderschap </t>
   </si>
   <si>
-    <t>Ondernemend zijn </t>
-  </si>
-  <si>
-    <t>Persoonlijke ontwikkeling </t>
-  </si>
-  <si>
-    <t>Persoonlijke profilering </t>
-  </si>
-  <si>
     <t>Doelgericht interacteren </t>
-  </si>
-  <si>
-    <t>Partners </t>
   </si>
   <si>
     <t>Communicatie</t>
@@ -819,6 +795,30 @@
   </si>
   <si>
     <t>Je werkt doelgericht en acteert weloverwogen op nieuwe kansen/initiatieven, waarin je samenwerkingspartners betrekt (denk aan teamleden, opdrachtgevers, eindgebruikers, maatschappelijke organisaties en/of andere stakeholders)</t>
+  </si>
+  <si>
+    <t>Organisatorische context</t>
+  </si>
+  <si>
+    <t>Ethiek</t>
+  </si>
+  <si>
+    <t>Methodische Probleemaanpak</t>
+  </si>
+  <si>
+    <t>Onderzoek</t>
+  </si>
+  <si>
+    <t>Persoonlijke ontwikkeling</t>
+  </si>
+  <si>
+    <t>Persoonlijke profilering</t>
+  </si>
+  <si>
+    <t>Partners</t>
+  </si>
+  <si>
+    <t>Ondernemend zijn</t>
   </si>
 </sst>
 </file>
@@ -3365,6 +3365,241 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="110" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3377,6 +3612,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3413,253 +3657,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="99" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="110" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -3675,9 +3675,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Thema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3715,7 +3715,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3821,7 +3821,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3963,7 +3963,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3992,11 +3992,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="255" t="s">
+      <c r="A1" s="334" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="271" t="s">
+      <c r="B1" s="335"/>
+      <c r="C1" s="255" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="1"/>
@@ -4008,8 +4008,8 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="257"/>
-      <c r="B2" s="258"/>
+      <c r="A2" s="336"/>
+      <c r="B2" s="337"/>
       <c r="C2" s="123" t="s">
         <v>1</v>
       </c>
@@ -4028,42 +4028,42 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="321" t="s">
+      <c r="A3" s="305" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="332" t="s">
+      <c r="B3" s="338" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="322" t="s">
-        <v>41</v>
+      <c r="C3" s="306" t="s">
+        <v>33</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="93" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="94" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="94" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
-      <c r="B4" s="333"/>
-      <c r="C4" s="323" t="s">
-        <v>45</v>
+      <c r="B4" s="339"/>
+      <c r="C4" s="307" t="s">
+        <v>37</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="95" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="13" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="13"/>
@@ -4071,9 +4071,9 @@
     </row>
     <row r="5" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
-      <c r="B5" s="334"/>
-      <c r="C5" s="323" t="s">
-        <v>48</v>
+      <c r="B5" s="340"/>
+      <c r="C5" s="307" t="s">
+        <v>40</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="96" t="s">
@@ -4081,7 +4081,7 @@
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="13" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="13"/>
@@ -4089,8 +4089,8 @@
     </row>
     <row r="6" spans="1:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
-      <c r="B6" s="335"/>
-      <c r="C6" s="324"/>
+      <c r="B6" s="316"/>
+      <c r="C6" s="308"/>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
       <c r="F6" s="18"/>
@@ -4101,35 +4101,35 @@
     </row>
     <row r="7" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
-      <c r="B7" s="333" t="s">
+      <c r="B7" s="339" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="325" t="s">
-        <v>50</v>
+      <c r="C7" s="309" t="s">
+        <v>42</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="21" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="23" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H7" s="22"/>
       <c r="I7" s="126" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J7" s="24"/>
     </row>
     <row r="8" spans="1:10" ht="48" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
-      <c r="B8" s="333"/>
-      <c r="C8" s="323" t="s">
-        <v>54</v>
+      <c r="B8" s="339"/>
+      <c r="C8" s="307" t="s">
+        <v>46</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="13" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="96" t="s">
@@ -4141,15 +4141,15 @@
     </row>
     <row r="9" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
-      <c r="B9" s="333"/>
-      <c r="C9" s="326"/>
+      <c r="B9" s="339"/>
+      <c r="C9" s="310"/>
       <c r="D9" s="10"/>
       <c r="E9" s="25" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="13"/>
@@ -4157,8 +4157,8 @@
     </row>
     <row r="10" spans="1:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
-      <c r="B10" s="335"/>
-      <c r="C10" s="324"/>
+      <c r="B10" s="316"/>
+      <c r="C10" s="308"/>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
       <c r="F10" s="18"/>
@@ -4169,39 +4169,39 @@
     </row>
     <row r="11" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
-      <c r="B11" s="333" t="s">
+      <c r="B11" s="339" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="325" t="s">
-        <v>58</v>
+      <c r="C11" s="309" t="s">
+        <v>50</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="21" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="23" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="23" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J11" s="24"/>
     </row>
     <row r="12" spans="1:10" ht="48" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
-      <c r="B12" s="333"/>
-      <c r="C12" s="323" t="s">
-        <v>62</v>
+      <c r="B12" s="339"/>
+      <c r="C12" s="307" t="s">
+        <v>54</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="13" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="13" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="13"/>
@@ -4209,13 +4209,13 @@
     </row>
     <row r="13" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
-      <c r="B13" s="333"/>
-      <c r="C13" s="327" t="s">
+      <c r="B13" s="339"/>
+      <c r="C13" s="311" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="13" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13"/>
@@ -4225,8 +4225,8 @@
     </row>
     <row r="14" spans="1:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
-      <c r="B14" s="335"/>
-      <c r="C14" s="324"/>
+      <c r="B14" s="316"/>
+      <c r="C14" s="308"/>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
       <c r="F14" s="18"/>
@@ -4237,46 +4237,46 @@
     </row>
     <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
-      <c r="B15" s="333" t="s">
+      <c r="B15" s="339" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="325" t="s">
-        <v>66</v>
+      <c r="C15" s="309" t="s">
+        <v>58</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="23" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="23" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="126" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J15" s="24"/>
     </row>
     <row r="16" spans="1:10" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
-      <c r="B16" s="333"/>
-      <c r="C16" s="328"/>
+      <c r="B16" s="339"/>
+      <c r="C16" s="312"/>
       <c r="D16" s="10"/>
       <c r="E16" s="96" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="26"/>
       <c r="H16" s="11"/>
       <c r="I16" s="32" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="J16" s="24"/>
     </row>
     <row r="17" spans="1:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
-      <c r="B17" s="335"/>
-      <c r="C17" s="324"/>
+      <c r="B17" s="316"/>
+      <c r="C17" s="308"/>
       <c r="D17" s="16"/>
       <c r="E17" s="27"/>
       <c r="F17" s="18"/>
@@ -4287,37 +4287,37 @@
     </row>
     <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
-      <c r="B18" s="336" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="329" t="s">
-        <v>72</v>
+      <c r="B18" s="333" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="313" t="s">
+        <v>64</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="97" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="98" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H18" s="24"/>
       <c r="I18" s="23" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J18" s="24"/>
     </row>
     <row r="19" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
-      <c r="B19" s="336"/>
-      <c r="C19" s="330"/>
+      <c r="B19" s="333"/>
+      <c r="C19" s="314"/>
       <c r="D19" s="30"/>
       <c r="E19" s="31" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="32" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="127"/>
@@ -4325,8 +4325,8 @@
     </row>
     <row r="20" spans="1:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33"/>
-      <c r="B20" s="337"/>
-      <c r="C20" s="331"/>
+      <c r="B20" s="317"/>
+      <c r="C20" s="315"/>
       <c r="D20" s="16"/>
       <c r="E20" s="27"/>
       <c r="F20" s="18"/>
@@ -4373,24 +4373,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="259" t="s">
+      <c r="A1" s="341" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="260"/>
-      <c r="C1" s="273" t="s">
+      <c r="B1" s="342"/>
+      <c r="C1" s="257" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="130"/>
-      <c r="E1" s="272"/>
+      <c r="E1" s="256"/>
       <c r="F1" s="130"/>
-      <c r="G1" s="272"/>
+      <c r="G1" s="256"/>
       <c r="H1" s="130"/>
-      <c r="I1" s="272"/>
+      <c r="I1" s="256"/>
       <c r="J1" s="131"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="261"/>
-      <c r="B2" s="262"/>
+      <c r="A2" s="343"/>
+      <c r="B2" s="344"/>
       <c r="C2" s="133" t="s">
         <v>1</v>
       </c>
@@ -4411,42 +4411,42 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="274" t="s">
+      <c r="A3" s="258" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="299" t="s">
+      <c r="B3" s="283" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="306" t="s">
-        <v>79</v>
+      <c r="C3" s="290" t="s">
+        <v>71</v>
       </c>
       <c r="D3" s="135"/>
       <c r="E3" s="134" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F3" s="135"/>
       <c r="G3" s="136" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H3" s="135"/>
       <c r="I3" s="134" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J3" s="135"/>
     </row>
     <row r="4" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="137"/>
-      <c r="B4" s="315"/>
-      <c r="C4" s="307" t="s">
-        <v>121</v>
+      <c r="B4" s="299"/>
+      <c r="C4" s="291" t="s">
+        <v>113</v>
       </c>
       <c r="D4" s="139"/>
       <c r="E4" s="138" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F4" s="139"/>
       <c r="G4" s="140" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H4" s="139"/>
       <c r="I4" s="141"/>
@@ -4454,17 +4454,17 @@
     </row>
     <row r="5" spans="1:10" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="137"/>
-      <c r="B5" s="315"/>
-      <c r="C5" s="307" t="s">
-        <v>85</v>
+      <c r="B5" s="299"/>
+      <c r="C5" s="291" t="s">
+        <v>77</v>
       </c>
       <c r="D5" s="139"/>
       <c r="E5" s="138" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F5" s="139"/>
       <c r="G5" s="140" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H5" s="139"/>
       <c r="I5" s="141"/>
@@ -4472,7 +4472,7 @@
     </row>
     <row r="6" spans="1:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="137"/>
-      <c r="B6" s="316"/>
+      <c r="B6" s="300"/>
       <c r="C6" s="142"/>
       <c r="D6" s="143"/>
       <c r="E6" s="142"/>
@@ -4484,37 +4484,37 @@
     </row>
     <row r="7" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="137"/>
-      <c r="B7" s="302" t="s">
+      <c r="B7" s="286" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="308" t="s">
-        <v>88</v>
+      <c r="C7" s="292" t="s">
+        <v>80</v>
       </c>
       <c r="D7" s="146"/>
       <c r="E7" s="145" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F7" s="146"/>
       <c r="G7" s="145" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H7" s="146"/>
       <c r="I7" s="145" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="J7" s="146"/>
     </row>
     <row r="8" spans="1:10" ht="36" x14ac:dyDescent="0.25">
       <c r="A8" s="137"/>
-      <c r="B8" s="315"/>
-      <c r="C8" s="309"/>
+      <c r="B8" s="299"/>
+      <c r="C8" s="293"/>
       <c r="D8" s="148"/>
       <c r="E8" s="140" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F8" s="148"/>
       <c r="G8" s="140" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H8" s="148"/>
       <c r="I8" s="147"/>
@@ -4522,13 +4522,13 @@
     </row>
     <row r="9" spans="1:10" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="137"/>
-      <c r="B9" s="315"/>
-      <c r="C9" s="310"/>
+      <c r="B9" s="299"/>
+      <c r="C9" s="294"/>
       <c r="D9" s="150"/>
       <c r="E9" s="149"/>
       <c r="F9" s="150"/>
       <c r="G9" s="151" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H9" s="150"/>
       <c r="I9" s="149"/>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="10" spans="1:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="137"/>
-      <c r="B10" s="316"/>
+      <c r="B10" s="300"/>
       <c r="C10" s="142"/>
       <c r="D10" s="143"/>
       <c r="E10" s="152"/>
@@ -4548,48 +4548,48 @@
     </row>
     <row r="11" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="137"/>
-      <c r="B11" s="299" t="s">
+      <c r="B11" s="283" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="311" t="s">
-        <v>95</v>
+      <c r="C11" s="295" t="s">
+        <v>87</v>
       </c>
       <c r="D11" s="153"/>
       <c r="E11" s="154" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F11" s="155"/>
       <c r="G11" s="136" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H11" s="156"/>
       <c r="I11" s="140" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="J11" s="156"/>
     </row>
     <row r="12" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="137"/>
-      <c r="B12" s="315"/>
-      <c r="C12" s="312" t="s">
-        <v>98</v>
+      <c r="B12" s="299"/>
+      <c r="C12" s="296" t="s">
+        <v>90</v>
       </c>
       <c r="D12" s="157"/>
       <c r="E12" s="158" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F12" s="159"/>
       <c r="G12" s="140" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H12" s="148"/>
       <c r="J12" s="148"/>
     </row>
     <row r="13" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="137"/>
-      <c r="B13" s="315"/>
-      <c r="C13" s="312" t="s">
-        <v>102</v>
+      <c r="B13" s="299"/>
+      <c r="C13" s="296" t="s">
+        <v>94</v>
       </c>
       <c r="D13" s="160"/>
       <c r="E13" s="161"/>
@@ -4601,7 +4601,7 @@
     </row>
     <row r="14" spans="1:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="137"/>
-      <c r="B14" s="316"/>
+      <c r="B14" s="300"/>
       <c r="C14" s="142"/>
       <c r="D14" s="143"/>
       <c r="E14" s="163"/>
@@ -4613,50 +4613,50 @@
     </row>
     <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.25">
       <c r="A15" s="137"/>
-      <c r="B15" s="299" t="s">
+      <c r="B15" s="283" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="311" t="s">
-        <v>103</v>
+      <c r="C15" s="295" t="s">
+        <v>95</v>
       </c>
       <c r="D15" s="156"/>
       <c r="E15" s="136" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F15" s="156"/>
       <c r="G15" s="136" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H15" s="156"/>
       <c r="I15" s="136" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="J15" s="156"/>
     </row>
     <row r="16" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="137"/>
-      <c r="B16" s="317"/>
-      <c r="C16" s="312" t="s">
-        <v>107</v>
+      <c r="B16" s="301"/>
+      <c r="C16" s="296" t="s">
+        <v>99</v>
       </c>
       <c r="D16" s="148"/>
       <c r="E16" s="164" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F16" s="148"/>
       <c r="G16" s="140" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="H16" s="148"/>
       <c r="I16" s="140" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="J16" s="148"/>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="137"/>
-      <c r="B17" s="317"/>
-      <c r="C17" s="313"/>
+      <c r="B17" s="301"/>
+      <c r="C17" s="297"/>
       <c r="D17" s="150"/>
       <c r="E17" s="151" t="s">
         <v>16</v>
@@ -4669,7 +4669,7 @@
     </row>
     <row r="18" spans="1:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="137"/>
-      <c r="B18" s="316"/>
+      <c r="B18" s="300"/>
       <c r="C18" s="142"/>
       <c r="D18" s="143"/>
       <c r="E18" s="142"/>
@@ -4681,39 +4681,39 @@
     </row>
     <row r="19" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="137"/>
-      <c r="B19" s="318" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="311" t="s">
-        <v>111</v>
+      <c r="B19" s="302" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="295" t="s">
+        <v>103</v>
       </c>
       <c r="D19" s="156"/>
       <c r="E19" s="136" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F19" s="156"/>
       <c r="G19" s="136" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H19" s="156"/>
       <c r="I19" s="136" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="J19" s="156"/>
     </row>
     <row r="20" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="137"/>
-      <c r="B20" s="319"/>
-      <c r="C20" s="312" t="s">
-        <v>115</v>
+      <c r="B20" s="303"/>
+      <c r="C20" s="296" t="s">
+        <v>107</v>
       </c>
       <c r="D20" s="165"/>
       <c r="E20" s="140" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F20" s="165"/>
       <c r="G20" s="140" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="H20" s="165"/>
       <c r="I20" s="166"/>
@@ -4721,17 +4721,17 @@
     </row>
     <row r="21" spans="1:10" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="137"/>
-      <c r="B21" s="320"/>
-      <c r="C21" s="314" t="s">
-        <v>118</v>
+      <c r="B21" s="304"/>
+      <c r="C21" s="298" t="s">
+        <v>110</v>
       </c>
       <c r="D21" s="168"/>
       <c r="E21" s="167" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F21" s="168"/>
       <c r="G21" s="167" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H21" s="168"/>
       <c r="I21" s="169"/>
@@ -4739,7 +4739,7 @@
     </row>
     <row r="22" spans="1:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="170"/>
-      <c r="B22" s="316"/>
+      <c r="B22" s="300"/>
       <c r="C22" s="171"/>
       <c r="D22" s="143"/>
       <c r="E22" s="172"/>
@@ -4782,24 +4782,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="263" t="s">
+      <c r="A1" s="345" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="264"/>
-      <c r="C1" s="281" t="s">
+      <c r="B1" s="346"/>
+      <c r="C1" s="265" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="174"/>
-      <c r="E1" s="277"/>
+      <c r="E1" s="261"/>
       <c r="F1" s="174"/>
-      <c r="G1" s="277"/>
+      <c r="G1" s="261"/>
       <c r="H1" s="174"/>
-      <c r="I1" s="277"/>
+      <c r="I1" s="261"/>
       <c r="J1" s="175"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="265"/>
-      <c r="B2" s="266"/>
+      <c r="A2" s="347"/>
+      <c r="B2" s="348"/>
       <c r="C2" s="176" t="s">
         <v>1</v>
       </c>
@@ -4818,26 +4818,26 @@
       <c r="J2" s="179"/>
     </row>
     <row r="3" spans="1:10" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="282" t="s">
+      <c r="A3" s="266" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="278" t="s">
+      <c r="B3" s="262" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="180" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D3" s="181"/>
       <c r="E3" s="182" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F3" s="181"/>
       <c r="G3" s="183" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H3" s="181"/>
       <c r="I3" s="183" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J3" s="184"/>
     </row>
@@ -4847,11 +4847,11 @@
       <c r="C4" s="187"/>
       <c r="D4" s="188"/>
       <c r="E4" s="189" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F4" s="188"/>
       <c r="G4" s="189" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H4" s="188"/>
       <c r="I4" s="190"/>
@@ -4865,7 +4865,7 @@
       <c r="E5" s="38"/>
       <c r="F5" s="193"/>
       <c r="G5" s="246" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H5" s="193"/>
       <c r="I5" s="195"/>
@@ -4885,23 +4885,23 @@
     </row>
     <row r="7" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="185"/>
-      <c r="B7" s="279" t="s">
+      <c r="B7" s="263" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="202" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D7" s="203"/>
       <c r="E7" s="204" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F7" s="203"/>
       <c r="G7" s="204" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="H7" s="203"/>
       <c r="I7" s="204" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J7" s="205"/>
     </row>
@@ -4911,11 +4911,11 @@
       <c r="C8" s="187"/>
       <c r="D8" s="188"/>
       <c r="E8" s="189" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F8" s="188"/>
       <c r="G8" s="189" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H8" s="188"/>
       <c r="I8" s="190"/>
@@ -4927,11 +4927,11 @@
       <c r="C9" s="192"/>
       <c r="D9" s="193"/>
       <c r="E9" s="194" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F9" s="193"/>
       <c r="G9" s="194" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H9" s="193"/>
       <c r="I9" s="195"/>
@@ -4951,23 +4951,23 @@
     </row>
     <row r="11" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="185"/>
-      <c r="B11" s="279" t="s">
+      <c r="B11" s="263" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="206" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D11" s="203"/>
       <c r="E11" s="247" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F11" s="203"/>
       <c r="G11" s="38" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H11" s="203"/>
       <c r="I11" s="38" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="J11" s="205"/>
     </row>
@@ -4979,7 +4979,7 @@
       <c r="E12" s="40"/>
       <c r="F12" s="193"/>
       <c r="G12" s="194" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H12" s="193"/>
       <c r="I12" s="195"/>
@@ -4999,23 +4999,23 @@
     </row>
     <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="185"/>
-      <c r="B14" s="279" t="s">
+      <c r="B14" s="263" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="206" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D14" s="203"/>
       <c r="E14" s="204" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F14" s="203"/>
       <c r="G14" s="204" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="H14" s="203"/>
       <c r="I14" s="38" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="J14" s="205"/>
     </row>
@@ -5025,11 +5025,11 @@
       <c r="C15" s="192"/>
       <c r="D15" s="193"/>
       <c r="E15" s="194" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F15" s="193"/>
       <c r="G15" s="194" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="H15" s="193"/>
       <c r="I15" s="195"/>
@@ -5049,23 +5049,23 @@
     </row>
     <row r="17" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="185"/>
-      <c r="B17" s="280" t="s">
-        <v>78</v>
+      <c r="B17" s="264" t="s">
+        <v>70</v>
       </c>
       <c r="C17" s="206" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D17" s="203"/>
       <c r="E17" s="204" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F17" s="203"/>
       <c r="G17" s="38" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="H17" s="203"/>
       <c r="I17" s="38" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="J17" s="205"/>
     </row>
@@ -5075,11 +5075,11 @@
       <c r="C18" s="208"/>
       <c r="D18" s="209"/>
       <c r="E18" s="210" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F18" s="209"/>
       <c r="G18" s="210" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="H18" s="209"/>
       <c r="I18" s="211"/>
@@ -5130,11 +5130,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="263" t="s">
+      <c r="A1" s="345" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="267"/>
-      <c r="C1" s="283" t="s">
+      <c r="B1" s="349"/>
+      <c r="C1" s="267" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="2"/>
@@ -5146,8 +5146,8 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="268"/>
-      <c r="B2" s="269"/>
+      <c r="A2" s="350"/>
+      <c r="B2" s="351"/>
       <c r="C2" s="220" t="s">
         <v>1</v>
       </c>
@@ -5166,26 +5166,26 @@
       <c r="J2" s="223"/>
     </row>
     <row r="3" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="274" t="s">
+      <c r="A3" s="258" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="276" t="s">
+      <c r="B3" s="260" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="224" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D3" s="225"/>
       <c r="E3" s="224" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F3" s="225"/>
       <c r="G3" s="224" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H3" s="225"/>
       <c r="I3" s="224" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="J3" s="226"/>
     </row>
@@ -5193,15 +5193,15 @@
       <c r="A4" s="39"/>
       <c r="B4" s="86"/>
       <c r="C4" s="227" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D4" s="225"/>
       <c r="E4" s="227" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F4" s="225"/>
       <c r="G4" s="248" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="H4" s="225"/>
       <c r="I4" s="227"/>
@@ -5211,11 +5211,11 @@
       <c r="A5" s="39"/>
       <c r="B5" s="86"/>
       <c r="C5" s="228" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D5" s="225"/>
       <c r="E5" s="229" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F5" s="225"/>
       <c r="G5" s="230"/>
@@ -5237,23 +5237,23 @@
     </row>
     <row r="7" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="39"/>
-      <c r="B7" s="275" t="s">
+      <c r="B7" s="259" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="224" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D7" s="225"/>
       <c r="E7" s="224" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F7" s="225"/>
       <c r="G7" s="224" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="H7" s="225"/>
       <c r="I7" s="224" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="J7" s="226"/>
     </row>
@@ -5263,11 +5263,11 @@
       <c r="C8" s="227"/>
       <c r="D8" s="225"/>
       <c r="E8" s="227" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F8" s="225"/>
       <c r="G8" s="248" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H8" s="225"/>
       <c r="I8" s="227"/>
@@ -5281,7 +5281,7 @@
       <c r="E9" s="228"/>
       <c r="F9" s="225"/>
       <c r="G9" s="228" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H9" s="225"/>
       <c r="I9" s="228"/>
@@ -5301,23 +5301,23 @@
     </row>
     <row r="11" spans="1:10" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="39"/>
-      <c r="B11" s="284" t="s">
+      <c r="B11" s="268" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="224" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D11" s="225"/>
       <c r="E11" s="224" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F11" s="225"/>
       <c r="G11" s="249" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="H11" s="225"/>
       <c r="I11" s="249" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="J11" s="226"/>
     </row>
@@ -5329,15 +5329,15 @@
       </c>
       <c r="D12" s="225"/>
       <c r="E12" s="227" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F12" s="225"/>
       <c r="G12" s="227" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="H12" s="225"/>
       <c r="I12" s="248" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="J12" s="226"/>
     </row>
@@ -5347,11 +5347,11 @@
       <c r="C13" s="227"/>
       <c r="D13" s="225"/>
       <c r="E13" s="227" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F13" s="225"/>
       <c r="G13" s="227" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H13" s="225"/>
       <c r="I13" s="227"/>
@@ -5363,7 +5363,7 @@
       <c r="C14" s="228"/>
       <c r="D14" s="225"/>
       <c r="E14" s="228" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F14" s="225"/>
       <c r="G14" s="228"/>
@@ -5385,23 +5385,23 @@
     </row>
     <row r="16" spans="1:10" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
-      <c r="B16" s="275" t="s">
+      <c r="B16" s="259" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="224" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D16" s="225"/>
       <c r="E16" s="240" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F16" s="225"/>
       <c r="G16" s="224" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="H16" s="225"/>
       <c r="I16" s="249" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="J16" s="226"/>
     </row>
@@ -5409,19 +5409,19 @@
       <c r="A17" s="39"/>
       <c r="B17" s="86"/>
       <c r="C17" s="227" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D17" s="225"/>
       <c r="E17" s="158" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F17" s="225"/>
       <c r="G17" s="227" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H17" s="225"/>
       <c r="I17" s="227" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="J17" s="226"/>
     </row>
@@ -5431,11 +5431,11 @@
       <c r="C18" s="228"/>
       <c r="D18" s="225"/>
       <c r="E18" s="229" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F18" s="225"/>
       <c r="G18" s="228" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="H18" s="225"/>
       <c r="I18" s="228"/>
@@ -5455,23 +5455,23 @@
     </row>
     <row r="20" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="39"/>
-      <c r="B20" s="285" t="s">
-        <v>78</v>
+      <c r="B20" s="269" t="s">
+        <v>70</v>
       </c>
       <c r="C20" s="224" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D20" s="225"/>
       <c r="E20" s="224" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F20" s="225"/>
       <c r="G20" s="224" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H20" s="225"/>
       <c r="I20" s="224" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="J20" s="226"/>
     </row>
@@ -5481,11 +5481,11 @@
       <c r="C21" s="228"/>
       <c r="D21" s="225"/>
       <c r="E21" s="228" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F21" s="225"/>
       <c r="G21" s="228" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H21" s="225"/>
       <c r="I21" s="228"/>
@@ -5547,35 +5547,35 @@
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="290" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="274" customWidth="1"/>
     <col min="4" max="4" width="1.7109375" style="63" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" style="290" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" style="274" customWidth="1"/>
     <col min="6" max="6" width="1.7109375" style="63" customWidth="1"/>
-    <col min="7" max="7" width="40.7109375" style="290" customWidth="1"/>
+    <col min="7" max="7" width="40.7109375" style="274" customWidth="1"/>
     <col min="8" max="8" width="1.7109375" style="63" customWidth="1"/>
-    <col min="9" max="9" width="40.7109375" style="290" customWidth="1"/>
+    <col min="9" max="9" width="40.7109375" style="274" customWidth="1"/>
     <col min="10" max="10" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="255" t="s">
+      <c r="A1" s="334" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="256"/>
+      <c r="B1" s="335"/>
       <c r="C1" s="129" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="288"/>
+      <c r="E1" s="272"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="288"/>
+      <c r="G1" s="272"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="288"/>
+      <c r="I1" s="272"/>
       <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:10" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="257"/>
-      <c r="B2" s="270"/>
+      <c r="A2" s="336"/>
+      <c r="B2" s="352"/>
       <c r="C2" s="133" t="s">
         <v>1</v>
       </c>
@@ -5597,55 +5597,55 @@
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="299" t="s">
+      <c r="B3" s="283" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="291" t="s">
-        <v>196</v>
+      <c r="C3" s="275" t="s">
+        <v>188</v>
       </c>
       <c r="D3" s="46"/>
       <c r="E3" s="47" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F3" s="48"/>
       <c r="G3" s="252" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H3" s="48"/>
       <c r="I3" s="50" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="J3" s="51"/>
     </row>
     <row r="4" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
-      <c r="B4" s="300"/>
-      <c r="C4" s="292" t="s">
-        <v>200</v>
+      <c r="B4" s="284"/>
+      <c r="C4" s="276" t="s">
+        <v>192</v>
       </c>
       <c r="D4" s="54"/>
       <c r="E4" s="55" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F4" s="56"/>
       <c r="G4" s="60" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="H4" s="56"/>
       <c r="I4" s="57" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="J4" s="58"/>
     </row>
     <row r="5" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
-      <c r="B5" s="300"/>
-      <c r="C5" s="286" t="s">
-        <v>204</v>
+      <c r="B5" s="284"/>
+      <c r="C5" s="270" t="s">
+        <v>196</v>
       </c>
       <c r="D5" s="54"/>
       <c r="E5" s="59" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F5" s="56"/>
       <c r="G5" s="63"/>
@@ -5655,8 +5655,8 @@
     </row>
     <row r="6" spans="1:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
-      <c r="B6" s="301"/>
-      <c r="C6" s="293"/>
+      <c r="B6" s="285"/>
+      <c r="C6" s="277"/>
       <c r="D6" s="67"/>
       <c r="E6" s="69"/>
       <c r="F6" s="70"/>
@@ -5667,50 +5667,50 @@
     </row>
     <row r="7" spans="1:10" s="52" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
-      <c r="B7" s="302" t="s">
+      <c r="B7" s="286" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="287" t="s">
-        <v>206</v>
+      <c r="C7" s="271" t="s">
+        <v>198</v>
       </c>
       <c r="D7" s="46"/>
       <c r="E7" s="49" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F7" s="48"/>
       <c r="G7" s="53" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H7" s="48"/>
       <c r="I7" s="50" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="J7" s="46"/>
     </row>
     <row r="8" spans="1:10" s="52" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
-      <c r="B8" s="303"/>
-      <c r="C8" s="294" t="s">
-        <v>209</v>
+      <c r="B8" s="287"/>
+      <c r="C8" s="278" t="s">
+        <v>201</v>
       </c>
       <c r="D8" s="54"/>
       <c r="E8" s="60" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F8" s="56"/>
       <c r="G8" s="60" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="57" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="J8" s="54"/>
     </row>
     <row r="9" spans="1:10" s="52" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
-      <c r="B9" s="303"/>
-      <c r="C9" s="295"/>
+      <c r="B9" s="287"/>
+      <c r="C9" s="279"/>
       <c r="D9" s="62"/>
       <c r="E9" s="72"/>
       <c r="F9" s="64"/>
@@ -5723,8 +5723,8 @@
     </row>
     <row r="10" spans="1:10" s="52" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
-      <c r="B10" s="301"/>
-      <c r="C10" s="296"/>
+      <c r="B10" s="285"/>
+      <c r="C10" s="280"/>
       <c r="D10" s="67"/>
       <c r="E10" s="68"/>
       <c r="F10" s="70"/>
@@ -5735,50 +5735,50 @@
     </row>
     <row r="11" spans="1:10" s="52" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
-      <c r="B11" s="302" t="s">
+      <c r="B11" s="286" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="292" t="s">
-        <v>213</v>
+      <c r="C11" s="276" t="s">
+        <v>205</v>
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="53" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F11" s="48"/>
       <c r="G11" s="53" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="H11" s="48"/>
       <c r="I11" s="50" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="J11" s="46"/>
     </row>
     <row r="12" spans="1:10" s="52" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
-      <c r="B12" s="303"/>
-      <c r="C12" s="286" t="s">
-        <v>217</v>
+      <c r="B12" s="287"/>
+      <c r="C12" s="270" t="s">
+        <v>209</v>
       </c>
       <c r="D12" s="54"/>
       <c r="E12" s="45" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F12" s="56"/>
       <c r="G12" s="245" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H12" s="56"/>
       <c r="I12" s="250" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="J12" s="54"/>
     </row>
     <row r="13" spans="1:10" s="52" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
-      <c r="B13" s="301"/>
-      <c r="C13" s="296"/>
+      <c r="B13" s="285"/>
+      <c r="C13" s="280"/>
       <c r="D13" s="67"/>
       <c r="E13" s="68"/>
       <c r="F13" s="70"/>
@@ -5789,50 +5789,50 @@
     </row>
     <row r="14" spans="1:10" s="52" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
-      <c r="B14" s="302" t="s">
+      <c r="B14" s="286" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="292" t="s">
-        <v>220</v>
+      <c r="C14" s="276" t="s">
+        <v>212</v>
       </c>
       <c r="D14" s="46"/>
       <c r="E14" s="53" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F14" s="48"/>
       <c r="G14" s="53" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="50" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="J14" s="46"/>
     </row>
     <row r="15" spans="1:10" s="52" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
-      <c r="B15" s="302"/>
-      <c r="C15" s="294" t="s">
-        <v>224</v>
+      <c r="B15" s="286"/>
+      <c r="C15" s="278" t="s">
+        <v>216</v>
       </c>
       <c r="D15" s="54"/>
       <c r="E15" s="60" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F15" s="56"/>
       <c r="G15" s="60" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H15" s="56"/>
       <c r="I15" s="251" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="J15" s="54"/>
     </row>
     <row r="16" spans="1:10" s="52" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
-      <c r="B16" s="301"/>
-      <c r="C16" s="296"/>
+      <c r="B16" s="285"/>
+      <c r="C16" s="280"/>
       <c r="D16" s="67"/>
       <c r="E16" s="68"/>
       <c r="F16" s="70"/>
@@ -5843,33 +5843,33 @@
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="48" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
-      <c r="B17" s="304" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="297" t="s">
-        <v>228</v>
+      <c r="B17" s="288" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="281" t="s">
+        <v>220</v>
       </c>
       <c r="D17" s="75"/>
       <c r="E17" s="74" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F17" s="76"/>
       <c r="G17" s="74" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="H17" s="76"/>
       <c r="I17" s="77" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="J17" s="75"/>
     </row>
     <row r="18" spans="1:10" s="52" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
-      <c r="B18" s="305"/>
-      <c r="C18" s="298"/>
+      <c r="B18" s="289"/>
+      <c r="C18" s="282"/>
       <c r="D18" s="79"/>
       <c r="E18" s="80" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F18" s="81"/>
       <c r="G18" s="78"/>
@@ -5879,7 +5879,7 @@
     </row>
     <row r="19" spans="1:10" s="52" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="83"/>
-      <c r="B19" s="301"/>
+      <c r="B19" s="285"/>
       <c r="C19" s="84"/>
       <c r="D19" s="67"/>
       <c r="E19" s="85"/>
@@ -5890,22 +5890,22 @@
       <c r="J19" s="67"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="289"/>
-      <c r="E20" s="289"/>
-      <c r="G20" s="289"/>
-      <c r="I20" s="289"/>
+      <c r="C20" s="273"/>
+      <c r="E20" s="273"/>
+      <c r="G20" s="273"/>
+      <c r="I20" s="273"/>
     </row>
     <row r="21" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="289"/>
-      <c r="E21" s="289"/>
-      <c r="G21" s="289"/>
-      <c r="I21" s="289"/>
+      <c r="C21" s="273"/>
+      <c r="E21" s="273"/>
+      <c r="G21" s="273"/>
+      <c r="I21" s="273"/>
     </row>
     <row r="22" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="289"/>
-      <c r="E22" s="289"/>
-      <c r="G22" s="289"/>
-      <c r="I22" s="289"/>
+      <c r="C22" s="273"/>
+      <c r="E22" s="273"/>
+      <c r="G22" s="273"/>
+      <c r="I22" s="273"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5920,7 +5920,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -5932,13 +5932,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="351" t="s">
+      <c r="A1" s="331" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="351" t="s">
+      <c r="B1" s="331" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="352" t="s">
+      <c r="C1" s="332" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="99"/>
@@ -5946,7 +5946,7 @@
     <row r="2" spans="1:4" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="100"/>
       <c r="B2" s="100"/>
-      <c r="C2" s="338"/>
+      <c r="C2" s="318"/>
       <c r="D2" s="99"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -5954,144 +5954,144 @@
         <v>25</v>
       </c>
       <c r="B3" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="339" t="s">
-        <v>244</v>
+        <v>239</v>
+      </c>
+      <c r="C3" s="319" t="s">
+        <v>236</v>
       </c>
       <c r="D3" s="99"/>
     </row>
     <row r="4" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="103"/>
       <c r="B4" s="104" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="340" t="s">
-        <v>235</v>
+        <v>240</v>
+      </c>
+      <c r="C4" s="320" t="s">
+        <v>227</v>
       </c>
       <c r="D4" s="99"/>
     </row>
     <row r="5" spans="1:4" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="105"/>
       <c r="B5" s="104" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="340" t="s">
-        <v>236</v>
+        <v>26</v>
+      </c>
+      <c r="C5" s="320" t="s">
+        <v>228</v>
       </c>
       <c r="D5" s="99"/>
     </row>
     <row r="6" spans="1:4" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="106"/>
       <c r="B6" s="107"/>
-      <c r="C6" s="341"/>
+      <c r="C6" s="321"/>
       <c r="D6" s="99"/>
     </row>
     <row r="7" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="90" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="108" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="342" t="s">
-        <v>237</v>
+        <v>241</v>
+      </c>
+      <c r="C7" s="322" t="s">
+        <v>229</v>
       </c>
       <c r="D7" s="99"/>
     </row>
     <row r="8" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="109"/>
       <c r="B8" s="110" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="343" t="s">
-        <v>245</v>
+        <v>242</v>
+      </c>
+      <c r="C8" s="323" t="s">
+        <v>237</v>
       </c>
       <c r="D8" s="99"/>
     </row>
     <row r="9" spans="1:4" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="111"/>
       <c r="B9" s="110" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="343" t="s">
-        <v>238</v>
+        <v>28</v>
+      </c>
+      <c r="C9" s="323" t="s">
+        <v>230</v>
       </c>
       <c r="D9" s="99"/>
     </row>
     <row r="10" spans="1:4" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="106"/>
       <c r="B10" s="107"/>
-      <c r="C10" s="341"/>
+      <c r="C10" s="321"/>
       <c r="D10" s="99"/>
     </row>
     <row r="11" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="91" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B11" s="112" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="344" t="s">
         <v>246</v>
+      </c>
+      <c r="C11" s="324" t="s">
+        <v>238</v>
       </c>
       <c r="D11" s="99"/>
     </row>
     <row r="12" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="113"/>
       <c r="B12" s="114" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="345" t="s">
-        <v>239</v>
+        <v>243</v>
+      </c>
+      <c r="C12" s="325" t="s">
+        <v>231</v>
       </c>
       <c r="D12" s="99"/>
     </row>
     <row r="13" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="115"/>
       <c r="B13" s="116" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="346" t="s">
-        <v>240</v>
+        <v>244</v>
+      </c>
+      <c r="C13" s="326" t="s">
+        <v>232</v>
       </c>
       <c r="D13" s="99"/>
     </row>
     <row r="14" spans="1:4" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="106"/>
       <c r="B14" s="117"/>
-      <c r="C14" s="347"/>
+      <c r="C14" s="327"/>
       <c r="D14" s="99"/>
     </row>
     <row r="15" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="92" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B15" s="118" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="348" t="s">
-        <v>241</v>
+        <v>245</v>
+      </c>
+      <c r="C15" s="328" t="s">
+        <v>233</v>
       </c>
       <c r="D15" s="99"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="119"/>
       <c r="B16" s="120" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="349" t="s">
-        <v>242</v>
+        <v>31</v>
+      </c>
+      <c r="C16" s="329" t="s">
+        <v>234</v>
       </c>
       <c r="D16" s="99"/>
     </row>
     <row r="17" spans="1:3" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="121"/>
       <c r="B17" s="122" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="350" t="s">
-        <v>243</v>
+        <v>32</v>
+      </c>
+      <c r="C17" s="330" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -6120,15 +6120,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="39795a11-5448-497b-98bf-35960f33f930">
@@ -6137,6 +6128,15 @@
     <TaxCatchAll xmlns="8e892f2d-e1cd-4f0b-9dd4-c081acb71766" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6341,20 +6341,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{690A9883-EEEE-430E-8F8D-62B29D11E355}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C96089A-41FE-4E34-AC2D-576064FFFC7D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="39795a11-5448-497b-98bf-35960f33f930"/>
     <ds:schemaRef ds:uri="8e892f2d-e1cd-4f0b-9dd4-c081acb71766"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{690A9883-EEEE-430E-8F8D-62B29D11E355}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
